--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3450683.597720728</v>
+        <v>3446378.845481916</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7908475.596868271</v>
+        <v>7908475.59686827</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>145.1986582043251</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>152.0747039460366</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.06671240279931849</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>20.10332478271073</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>59.98896936883384</v>
+        <v>84.01307649987375</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,7 +913,7 @@
         <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>129.0963944925432</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>25.59718805317001</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -983,16 +983,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>135.0590005369625</v>
       </c>
       <c r="G6" t="n">
-        <v>50.97921743991456</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.6477566431697</v>
+        <v>6.618937440096265</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.8302881234605</v>
+        <v>11.83028812346051</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787265</v>
+        <v>28.69662974665164</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734614</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.895202352076</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>304.983473485688</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>142.1478052244729</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1229,10 +1229,10 @@
         <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719214</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155182</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088543</v>
+        <v>137.1730436088544</v>
       </c>
       <c r="T9" t="n">
         <v>192.675990284458</v>
@@ -1271,7 +1271,7 @@
         <v>225.8191502244401</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>7.982079799807643</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>134.78230567036</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685651</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418046</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.290298616738</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>65.70487446163304</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444124</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695527</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881284</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>156.3923706291105</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>160.9888698962426</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695527</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>39.52129633183119</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>65.99480013030511</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.5414768533582</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>167.8792891424499</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>140.9357387834185</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>80.07147829118306</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>153.5899618586515</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>73.578497753872</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444131</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465693</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856563</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>201.5228560380949</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>72.01539947949729</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>79.05856366754516</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>205.6779548755975</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>29.6738200803744</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>138.5343125815924</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.2627786323103</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="C2" t="n">
-        <v>371.2627786323103</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="D2" t="n">
-        <v>371.2627786323103</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="E2" t="n">
-        <v>371.2627786323103</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="F2" t="n">
-        <v>181.8429936158254</v>
+        <v>28.23218154912181</v>
       </c>
       <c r="G2" t="n">
-        <v>168.6128590400092</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
         <v>15.0020469733056</v>
@@ -4366,16 +4366,16 @@
         <v>560.6825636487952</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487952</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487952</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487952</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.2627786323103</v>
+        <v>181.8429936158254</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.5366049464206</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="C3" t="n">
-        <v>161.5366049464206</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="D3" t="n">
-        <v>161.5366049464206</v>
+        <v>422.7018071776731</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>263.4643521722176</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>116.9297941991026</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>116.9297941991026</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.06943323875946</v>
       </c>
       <c r="I3" t="n">
         <v>15.0020469733056</v>
@@ -4412,16 +4412,16 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476352</v>
@@ -4433,28 +4433,28 @@
         <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="T3" t="n">
-        <v>750.10234866528</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487952</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="V3" t="n">
-        <v>540.3761749793904</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="W3" t="n">
-        <v>350.9563899629055</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="X3" t="n">
-        <v>350.9563899629055</v>
+        <v>571.6362168389244</v>
       </c>
       <c r="Y3" t="n">
-        <v>161.5366049464206</v>
+        <v>571.6362168389244</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>371.2627786323103</v>
+        <v>568.4538838350403</v>
       </c>
       <c r="C4" t="n">
-        <v>310.6678600779327</v>
+        <v>483.5921904008244</v>
       </c>
       <c r="D4" t="n">
-        <v>310.6678600779327</v>
+        <v>333.4755509884887</v>
       </c>
       <c r="E4" t="n">
-        <v>310.6678600779327</v>
+        <v>185.5624574060956</v>
       </c>
       <c r="F4" t="n">
-        <v>310.6678600779327</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="G4" t="n">
-        <v>141.9790366408477</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="H4" t="n">
-        <v>141.9790366408477</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J4" t="n">
         <v>15.0020469733056</v>
@@ -4527,13 +4527,13 @@
         <v>750.10234866528</v>
       </c>
       <c r="W4" t="n">
-        <v>560.6825636487952</v>
+        <v>750.10234866528</v>
       </c>
       <c r="X4" t="n">
-        <v>371.2627786323103</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Y4" t="n">
-        <v>371.2627786323103</v>
+        <v>750.10234866528</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1166.10303722489</v>
+        <v>183.4869675567997</v>
       </c>
       <c r="C5" t="n">
-        <v>797.140520284478</v>
+        <v>183.4869675567997</v>
       </c>
       <c r="D5" t="n">
-        <v>438.8748216777276</v>
+        <v>183.4869675567997</v>
       </c>
       <c r="E5" t="n">
-        <v>53.08656907948338</v>
+        <v>183.4869675567997</v>
       </c>
       <c r="F5" t="n">
-        <v>46.14106833027991</v>
+        <v>176.5414668075962</v>
       </c>
       <c r="G5" t="n">
-        <v>33.72921106255854</v>
+        <v>164.1296095398749</v>
       </c>
       <c r="H5" t="n">
         <v>33.72921106255854</v>
@@ -4594,25 +4594,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1544.727438003256</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T5" t="n">
-        <v>1544.727438003256</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U5" t="n">
-        <v>1544.727438003256</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V5" t="n">
-        <v>1518.871692495004</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="W5" t="n">
-        <v>1166.10303722489</v>
+        <v>1333.691897857813</v>
       </c>
       <c r="X5" t="n">
-        <v>1166.10303722489</v>
+        <v>960.2261395967332</v>
       </c>
       <c r="Y5" t="n">
-        <v>1166.10303722489</v>
+        <v>570.0868076209215</v>
       </c>
     </row>
     <row r="6">
@@ -4631,13 +4631,13 @@
         <v>329.3898989336327</v>
       </c>
       <c r="E6" t="n">
-        <v>329.3898989336327</v>
+        <v>170.1524439281772</v>
       </c>
       <c r="F6" t="n">
-        <v>182.8553409605177</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G6" t="n">
-        <v>131.3611819303009</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H6" t="n">
         <v>33.72921106255854</v>
@@ -4649,22 +4649,22 @@
         <v>59.04473788968937</v>
       </c>
       <c r="K6" t="n">
-        <v>243.3761013330765</v>
+        <v>243.2077001209171</v>
       </c>
       <c r="L6" t="n">
-        <v>660.7750882322384</v>
+        <v>452.7985733737478</v>
       </c>
       <c r="M6" t="n">
-        <v>924.7146197277258</v>
+        <v>716.738104869235</v>
       </c>
       <c r="N6" t="n">
-        <v>1210.048490161058</v>
+        <v>1002.071975302568</v>
       </c>
       <c r="O6" t="n">
-        <v>1448.853441912517</v>
+        <v>1240.876927054026</v>
       </c>
       <c r="P6" t="n">
-        <v>1621.182402866226</v>
+        <v>1413.205888007736</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>182.8683591869724</v>
+        <v>601.2734510901296</v>
       </c>
       <c r="C7" t="n">
-        <v>182.8683591869724</v>
+        <v>601.2734510901296</v>
       </c>
       <c r="D7" t="n">
-        <v>182.8683591869724</v>
+        <v>451.1568116777938</v>
       </c>
       <c r="E7" t="n">
-        <v>182.8683591869724</v>
+        <v>303.2437180954007</v>
       </c>
       <c r="F7" t="n">
-        <v>182.8683591869724</v>
+        <v>156.3537705974904</v>
       </c>
       <c r="G7" t="n">
-        <v>182.8683591869724</v>
+        <v>156.3537705974904</v>
       </c>
       <c r="H7" t="n">
-        <v>33.72921106255854</v>
+        <v>149.6679752034537</v>
       </c>
       <c r="I7" t="n">
         <v>33.72921106255854</v>
@@ -4749,28 +4749,28 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1175.471604442305</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="S7" t="n">
-        <v>1175.471604442305</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="T7" t="n">
-        <v>1175.471604442305</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="U7" t="n">
-        <v>886.3349774344067</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="V7" t="n">
-        <v>631.6504892285199</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="W7" t="n">
-        <v>631.6504892285199</v>
+        <v>1003.714495063899</v>
       </c>
       <c r="X7" t="n">
-        <v>403.6609383305025</v>
+        <v>1003.714495063899</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.8683591869724</v>
+        <v>782.9219159203693</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>884.6828495134662</v>
+        <v>461.1998448941142</v>
       </c>
       <c r="C8" t="n">
-        <v>884.6828495134662</v>
+        <v>92.23732795370245</v>
       </c>
       <c r="D8" t="n">
-        <v>526.4171509067156</v>
+        <v>92.23732795370245</v>
       </c>
       <c r="E8" t="n">
-        <v>140.6288983084714</v>
+        <v>92.23732795370245</v>
       </c>
       <c r="F8" t="n">
-        <v>133.6833975592679</v>
+        <v>85.29182720449897</v>
       </c>
       <c r="G8" t="n">
-        <v>121.7336115759745</v>
+        <v>73.34204122120553</v>
       </c>
       <c r="H8" t="n">
-        <v>121.7336115759745</v>
+        <v>73.34204122120553</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761828</v>
+        <v>44.35554652761802</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872706</v>
+        <v>156.8927045872695</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158996</v>
+        <v>376.2952505158971</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985278</v>
+        <v>685.385271498523</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556943</v>
+        <v>1060.976912556937</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415488</v>
+        <v>1447.25982741548</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975109</v>
+        <v>1798.680568975099</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631088</v>
+        <v>2064.109040631076</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208126</v>
+        <v>2215.262022208113</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380914</v>
+        <v>2217.777326380901</v>
       </c>
       <c r="S8" t="n">
-        <v>2086.573660650145</v>
+        <v>2217.777326380901</v>
       </c>
       <c r="T8" t="n">
-        <v>1876.578506759159</v>
+        <v>2217.777326380901</v>
       </c>
       <c r="U8" t="n">
-        <v>1876.578506759159</v>
+        <v>1964.173430465242</v>
       </c>
       <c r="V8" t="n">
-        <v>1545.515619415588</v>
+        <v>1964.173430465242</v>
       </c>
       <c r="W8" t="n">
-        <v>1192.746964145474</v>
+        <v>1611.404775195128</v>
       </c>
       <c r="X8" t="n">
-        <v>1192.746964145474</v>
+        <v>1237.939016934048</v>
       </c>
       <c r="Y8" t="n">
-        <v>884.6828495134662</v>
+        <v>847.799684958236</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>751.4950683921475</v>
+        <v>810.3691327353164</v>
       </c>
       <c r="C9" t="n">
-        <v>751.4950683921475</v>
+        <v>635.9161034541894</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9114267512657</v>
+        <v>486.9816937929382</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6739717458101</v>
+        <v>327.7442387874827</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1394137726951</v>
+        <v>181.2096808143676</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2852794859455</v>
+        <v>44.35554652761802</v>
       </c>
       <c r="H9" t="n">
-        <v>70.04102928676153</v>
+        <v>44.35554652761802</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761828</v>
+        <v>44.35554652761802</v>
       </c>
       <c r="J9" t="n">
-        <v>92.56405995424078</v>
+        <v>217.3941849412447</v>
       </c>
       <c r="K9" t="n">
-        <v>253.1149126643081</v>
+        <v>462.642734993757</v>
       </c>
       <c r="L9" t="n">
-        <v>515.3178884939845</v>
+        <v>724.8457108234322</v>
       </c>
       <c r="M9" t="n">
-        <v>1005.714389467911</v>
+        <v>1050.181084473536</v>
       </c>
       <c r="N9" t="n">
-        <v>1354.069067308665</v>
+        <v>1398.535762314289</v>
       </c>
       <c r="O9" t="n">
-        <v>1902.968955587941</v>
+        <v>1694.992440729439</v>
       </c>
       <c r="P9" t="n">
-        <v>2121.56850985527</v>
+        <v>1913.591994996767</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380914</v>
+        <v>2217.777326380901</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380914</v>
+        <v>2217.777326380901</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.21869647298</v>
+        <v>2079.218696472967</v>
       </c>
       <c r="T9" t="n">
-        <v>1884.596484064437</v>
+        <v>1884.596484064424</v>
       </c>
       <c r="U9" t="n">
-        <v>1656.496332322578</v>
+        <v>1656.496332322565</v>
       </c>
       <c r="V9" t="n">
-        <v>1421.344224090836</v>
+        <v>1648.433625454073</v>
       </c>
       <c r="W9" t="n">
-        <v>1167.106867362634</v>
+        <v>1394.196268725871</v>
       </c>
       <c r="X9" t="n">
-        <v>959.2553671571013</v>
+        <v>1186.344768520338</v>
       </c>
       <c r="Y9" t="n">
-        <v>751.4950683921475</v>
+        <v>978.5844697553844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>472.2923009634474</v>
+        <v>330.6159290413275</v>
       </c>
       <c r="C10" t="n">
-        <v>472.2923009634474</v>
+        <v>330.6159290413275</v>
       </c>
       <c r="D10" t="n">
-        <v>322.1756615511117</v>
+        <v>180.4992896289918</v>
       </c>
       <c r="E10" t="n">
-        <v>322.1756615511117</v>
+        <v>44.35554652761802</v>
       </c>
       <c r="F10" t="n">
-        <v>322.1756615511117</v>
+        <v>44.35554652761802</v>
       </c>
       <c r="G10" t="n">
-        <v>154.0611584150578</v>
+        <v>44.35554652761802</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0611584150578</v>
+        <v>44.35554652761802</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761828</v>
+        <v>44.35554652761802</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692025</v>
+        <v>60.95254262691964</v>
       </c>
       <c r="K10" t="n">
-        <v>218.063342327403</v>
+        <v>218.0633423274018</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918436</v>
+        <v>474.6375091918417</v>
       </c>
       <c r="M10" t="n">
-        <v>755.548116892171</v>
+        <v>755.5481168921683</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629318</v>
+        <v>1035.213914629315</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.51424854613</v>
+        <v>1277.514248546126</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659239</v>
+        <v>1461.323360659235</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155967</v>
+        <v>1505.148182155962</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155967</v>
+        <v>1505.148182155962</v>
       </c>
       <c r="S10" t="n">
-        <v>1306.288073426872</v>
+        <v>1505.148182155962</v>
       </c>
       <c r="T10" t="n">
-        <v>1082.76251926855</v>
+        <v>1505.148182155962</v>
       </c>
       <c r="U10" t="n">
-        <v>1016.393959206295</v>
+        <v>1505.148182155962</v>
       </c>
       <c r="V10" t="n">
-        <v>761.709471000408</v>
+        <v>1250.463693950075</v>
       </c>
       <c r="W10" t="n">
-        <v>472.2923009634474</v>
+        <v>961.0465239131147</v>
       </c>
       <c r="X10" t="n">
-        <v>472.2923009634474</v>
+        <v>733.0569730150974</v>
       </c>
       <c r="Y10" t="n">
-        <v>472.2923009634474</v>
+        <v>512.2643938715672</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687904</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>904.461687384549</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.840175011101</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.161572207407</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5269,49 +5269,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654475</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>473.9330993947872</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>323.8164599824514</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2380.301669307225</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.700204330166</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,31 +5512,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>3210.485548300425</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>3838.083511855031</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>924.6979859831846</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>924.6979859831846</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>774.5813465708488</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>626.6682529884557</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>479.7783054905453</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1106.346450813424</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5749,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5770,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5831,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3025.687952571559</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>3025.687952571559</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>2875.571313159223</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673937</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>4115.110757018135</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>3945.535717480307</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>3656.118547443346</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>3428.128996545328</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>3207.336417401798</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5992,7 +5992,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,7 +6001,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6028,10 +6028,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6077,19 +6077,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3235.613758549116</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>3066.677575621209</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>2916.560936208873</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>2768.64784262648</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>2621.75789512857</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>3638.054802522885</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>3417.262223379355</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,16 +6205,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,19 +6223,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6244,10 +6244,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398594</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>923.0670414349513</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703114</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>695.5020655703114</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>545.3854261579756</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>545.3854261579756</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>398.4954786600653</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578601</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511905</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2122.740830584667</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1833.665603928865</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1578.981115722978</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1578.981115722978</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1350.99156482496</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6685,13 +6685,13 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436268</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
@@ -6700,10 +6700,10 @@
         <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>784.5811134804965</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>615.6449305525895</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>465.5282911402536</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578604</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578604</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578604</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1993.504105045047</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1704.428878389245</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1704.428878389245</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1415.011708352284</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1187.022157454267</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>966.2295783107363</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,37 +6925,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511905</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2191.365421478097</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1902.290194822295</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1647.605706616408</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1358.188536579448</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1130.19898568143</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349513</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703114</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>695.5020655703114</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>545.3854261579756</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>397.4723325755825</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797747</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3175.341129796739</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>3006.404946868832</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>2856.288307456496</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>2708.375213874103</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>3897.172899444211</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>3607.75572940725</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>3577.782173770509</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>3356.989594626978</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694708</v>
@@ -7672,25 +7672,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>562.8579153358619</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>923.4916164683287</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>754.5554335404219</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>604.4387941280861</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>604.4387941280861</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>457.5488466301757</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8297,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>63.54370825566494</v>
+        <v>63.37360602116058</v>
       </c>
       <c r="L6" t="n">
-        <v>209.9071855013448</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,31 +8531,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>85.55322963883424</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>166.7284114382032</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>254.9931412768931</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688311</v>
+        <v>30.32522655688348</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>-2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>10.85445046951733</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>125.5341284403484</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.0314858713395</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>4.98266143891064</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>84.25835418137814</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>24.5883995088503</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>85.45266000108579</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>72.11969353038569</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>143.8269525734163</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>15.88259428919346</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>145.390050847791</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>66.36248435538609</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>46.45968844823045</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>196.0358353086627</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>26.98982571067643</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>701556.0906844324</v>
+        <v>701556.0906844323</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745262</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679314.7119745262</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679314.7119745262</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244619</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244632</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="F2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.604713255</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="K2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="L2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132551</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26371,34 +26371,34 @@
         <v>259123.8056778327</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296905</v>
+        <v>138712.7919296871</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745748</v>
+        <v>589678.7921745782</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854475</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153558</v>
+        <v>60247.15959153561</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.8733648429</v>
+        <v>33617.87336484209</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167274</v>
+        <v>154073.8510167283</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296189</v>
+        <v>170385.5244296198</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26444,19 +26444,19 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
+        <v>14216.75207685501</v>
+      </c>
+      <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="L4" t="n">
-        <v>14216.75207685494</v>
-      </c>
       <c r="M4" t="n">
-        <v>14216.752076855</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685495</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26475,7 +26475,7 @@
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969306</v>
+        <v>86168.04029969282</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167048.2424712035</v>
+        <v>-167048.2424712034</v>
       </c>
       <c r="C6" t="n">
-        <v>215474.5337518797</v>
+        <v>215474.5337518796</v>
       </c>
       <c r="D6" t="n">
-        <v>364197.2804654597</v>
+        <v>364197.2804654635</v>
       </c>
       <c r="E6" t="n">
-        <v>41592.53063791824</v>
+        <v>41245.15138355816</v>
       </c>
       <c r="F6" t="n">
-        <v>631271.3228124932</v>
+        <v>630923.9435581361</v>
       </c>
       <c r="G6" t="n">
-        <v>631271.3228124932</v>
+        <v>630923.943558136</v>
       </c>
       <c r="H6" t="n">
-        <v>631271.3228124927</v>
+        <v>630923.9435581362</v>
       </c>
       <c r="I6" t="n">
-        <v>631271.3228124928</v>
+        <v>630923.9435581359</v>
       </c>
       <c r="J6" t="n">
-        <v>582206.3780839483</v>
+        <v>581858.9988295916</v>
       </c>
       <c r="K6" t="n">
-        <v>571024.1632209577</v>
+        <v>570676.7839666004</v>
       </c>
       <c r="L6" t="n">
-        <v>597653.4494476502</v>
+        <v>597306.070193294</v>
       </c>
       <c r="M6" t="n">
-        <v>477197.4717957659</v>
+        <v>476850.0925414076</v>
       </c>
       <c r="N6" t="n">
-        <v>631271.3228124932</v>
+        <v>630923.9435581361</v>
       </c>
       <c r="O6" t="n">
-        <v>631271.322812493</v>
+        <v>630923.943558136</v>
       </c>
       <c r="P6" t="n">
-        <v>631271.3228124932</v>
+        <v>630923.943558136</v>
       </c>
     </row>
   </sheetData>
@@ -26694,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.333843289767005e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.333843289767005e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.333843289767005e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.333843289767005e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790452</v>
+        <v>863.7717861790425</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952285</v>
+        <v>554.4443315952252</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="P4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.333843289767005e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.333843289767005e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.487749771531007e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26965,22 +26965,22 @@
         <v>201.5110155847053</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814352</v>
+        <v>113.7908296814325</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626283</v>
+        <v>504.2037141626313</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>234.0895511156618</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132468</v>
+        <v>132.8291933132434</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044196</v>
+        <v>618.2639565044232</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156615</v>
+        <v>234.0895511156618</v>
       </c>
       <c r="L4" t="n">
-        <v>132.829193313247</v>
+        <v>132.8291933132434</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044196</v>
+        <v>618.2639565044233</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.333843289767005e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.333843289767005e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>234.0895511156618</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132468</v>
+        <v>132.8291933132434</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044196</v>
+        <v>618.2639565044232</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>220.0742335666824</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>164.8191221601857</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27438,7 +27438,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27463,10 +27463,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.71209935270725</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377092</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>212.6972623667145</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098435</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>107.257851729794</v>
+        <v>83.23374459875409</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027099</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271714</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5974454495113</v>
+        <v>179.5010509569681</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885167</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
         <v>209.8976922291835</v>
@@ -27675,16 +27675,16 @@
         <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
-        <v>302.1550704169649</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>10.01021185642139</v>
       </c>
       <c r="G6" t="n">
-        <v>84.75113313762198</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833735</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>2.555131020750764</v>
+        <v>143.5839502238242</v>
       </c>
       <c r="I7" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
         <v>200.4475243713015</v>
@@ -27830,16 +27830,16 @@
         <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832801</v>
+        <v>303.9125797832803</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>47.90765465122143</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.8916290734617</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0678569565025</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>81.25446517036556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>5.29726034016582</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27949,10 +27949,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.2918076971922</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.42862793155201</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27991,7 +27991,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>224.8185073496176</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>11.65165697620918</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421427</v>
+        <v>148.3785035421428</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.6085557685653</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305866</v>
+        <v>107.2570757305868</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8715076418047</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.2902986167381</v>
       </c>
       <c r="U10" t="n">
-        <v>220.5291937355615</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29754,19 +29754,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-3.65373878764338e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-1.167320208748736e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29994,16 +29994,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-1.375941789006712e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115543</v>
       </c>
       <c r="J5" t="n">
         <v>255.8942561066896</v>
@@ -31363,7 +31363,7 @@
         <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>55.54104253307773</v>
+        <v>55.54104253307774</v>
       </c>
       <c r="J6" t="n">
         <v>152.4088658859908</v>
@@ -31396,7 +31396,7 @@
         <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>6.502193386993428</v>
+        <v>6.502193386993429</v>
       </c>
       <c r="U6" t="n">
         <v>0.1061293806364543</v>
@@ -31469,13 +31469,13 @@
         <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>60.80993132519963</v>
+        <v>60.80993132519964</v>
       </c>
       <c r="S7" t="n">
-        <v>23.56907366567078</v>
+        <v>23.56907366567079</v>
       </c>
       <c r="T7" t="n">
-        <v>5.778541795965189</v>
+        <v>5.77854179596519</v>
       </c>
       <c r="U7" t="n">
         <v>0.07376861867189614</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674551</v>
+        <v>3.47244939167454</v>
       </c>
       <c r="H8" t="n">
-        <v>35.562222332487</v>
+        <v>35.56222233248689</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725333</v>
+        <v>133.8716051725328</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566382</v>
+        <v>294.7198015566373</v>
       </c>
       <c r="K8" t="n">
-        <v>441.708584306222</v>
+        <v>441.7085843062206</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766821</v>
+        <v>547.9785573766804</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458745</v>
+        <v>609.7317292458725</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799698</v>
+        <v>619.5978260799678</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415059</v>
+        <v>585.0686574415041</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845404</v>
+        <v>499.3425630845388</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451954</v>
+        <v>374.9854692451942</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997767</v>
+        <v>218.126249099776</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278391</v>
+        <v>79.12844051278365</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205535</v>
+        <v>15.20064721205531</v>
       </c>
       <c r="U8" t="n">
-        <v>0.277795951333964</v>
+        <v>0.2777959513339631</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328512</v>
+        <v>1.857924219328507</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930432</v>
+        <v>17.94363653930426</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986326</v>
+        <v>63.96800491986306</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743662</v>
+        <v>175.5330947743656</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693765</v>
+        <v>300.0140174693756</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169211</v>
+        <v>403.4058705169198</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675796</v>
+        <v>470.7556234675781</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436906</v>
+        <v>483.2151240436891</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627799</v>
+        <v>442.0474347627784</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873894</v>
+        <v>354.7820379873883</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391975</v>
+        <v>237.1623968391967</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070808</v>
+        <v>115.3542774070805</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498353</v>
+        <v>34.51012749498342</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363606</v>
+        <v>7.488738410363583</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347706</v>
+        <v>0.1222318565347702</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765491</v>
+        <v>1.557621253765486</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529683</v>
+        <v>13.84866896529679</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869315</v>
+        <v>46.841919158693</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412202</v>
+        <v>110.1238226412199</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011179</v>
+        <v>180.9672693011174</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552804</v>
+        <v>231.5757998552797</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243487</v>
+        <v>244.164211624348</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057685</v>
+        <v>238.3585324057677</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231442</v>
+        <v>220.1626841231435</v>
       </c>
       <c r="P10" t="n">
-        <v>188.387210546328</v>
+        <v>188.3872105463275</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130358</v>
+        <v>130.4295397130354</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658289</v>
+        <v>70.03631564658266</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516768</v>
+        <v>27.1450903951676</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543461</v>
+        <v>6.655290811543439</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629962</v>
+        <v>0.08496115929629935</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>456.3459017226606</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>254.8897444730612</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669242</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>576.0573465136306</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>381.2855185329316</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>301.6445156724557</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33022,10 +33022,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422586</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>167.1165249313363</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33186,7 +33186,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
         <v>867.8464071162563</v>
@@ -33259,10 +33259,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422586</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>510.8679233250717</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,28 +33496,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,28 +33733,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,10 +33970,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>353.3934907042769</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236508</v>
@@ -34207,10 +34207,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>307.465452939363</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,13 +34444,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4622569139906</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -35017,25 +35017,25 @@
         <v>25.57123921932407</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1932964074617</v>
+        <v>186.0231941729573</v>
       </c>
       <c r="L6" t="n">
-        <v>421.6151382819818</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>266.6055873691791</v>
+        <v>266.605587369179</v>
       </c>
       <c r="N6" t="n">
-        <v>288.2160307407401</v>
+        <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>241.2171229812711</v>
+        <v>241.2171229812712</v>
       </c>
       <c r="P6" t="n">
         <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.93752551686947</v>
+        <v>276.0148132527186</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299519</v>
+        <v>113.673897029951</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612415</v>
+        <v>221.61873326124</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066949</v>
+        <v>312.2121424066932</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186018</v>
+        <v>379.3854960185998</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833788</v>
+        <v>390.1847624833769</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198192</v>
+        <v>354.9704460198174</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292709</v>
+        <v>268.1095673292693</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707459</v>
+        <v>152.6797793707447</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644591</v>
+        <v>2.54071128564388</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.6954681076995</v>
+        <v>174.7865034481078</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1725784950175</v>
+        <v>247.7258081338508</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370469</v>
+        <v>264.8514907370457</v>
       </c>
       <c r="M9" t="n">
-        <v>495.3500009837645</v>
+        <v>328.6215895455597</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603573</v>
+        <v>351.8734119603557</v>
       </c>
       <c r="O9" t="n">
-        <v>554.4443315952285</v>
+        <v>299.451190318334</v>
       </c>
       <c r="P9" t="n">
-        <v>220.8076305730592</v>
+        <v>220.807630573058</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.18062275317598</v>
+        <v>307.2579104890243</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454744</v>
+        <v>16.7646425245471</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752351</v>
+        <v>158.6977774752345</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155966</v>
+        <v>259.1658251155958</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861893</v>
+        <v>283.7480885861885</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849971</v>
+        <v>282.4907047849963</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371839</v>
+        <v>244.7478120371832</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112215</v>
+        <v>185.6657698112209</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134142</v>
+        <v>44.26749646134103</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>318.5044627483016</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>116.335364693187</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924747</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>433.4611020691861</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>249.9438064495983</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36445,22 +36445,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>159.0482712280113</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36682,19 +36682,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.13475084531481</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
         <v>632.079992146269</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>379.5262112417385</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>527.4636460127482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>527.4636460127482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367747</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
         <v>632.079992146269</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37630,19 +37630,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>219.4190832899467</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>173.4910455250327</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>322.6208179396316</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3446378.845481916</v>
+        <v>3448139.375784701</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>145.1986582043251</v>
+        <v>133.833359060644</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>83.41747001683207</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06671240279931849</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>84.01307649987375</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>85.62106172970819</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
-        <v>129.0963944925432</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>209.9667518712073</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>42.79419498334291</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>135.0590005369625</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>6.618937440096265</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>182.2116568871363</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>154.0954095404607</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83028812346051</v>
+        <v>11.8302881234605</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>28.69662974665164</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.8916290734615</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0678569565025</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088544</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.675990284458</v>
+        <v>105.0305265437037</v>
       </c>
       <c r="U9" t="n">
         <v>225.8191502244401</v>
       </c>
       <c r="V9" t="n">
-        <v>7.982079799807643</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>134.78230567036</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.6085557685652</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>62.76619243244771</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>156.3923706291105</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1666,10 +1666,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>79.69108391904159</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>65.99480013030511</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2089,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2247,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>26.05480806223585</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.799772605716619</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>153.5899618586515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E34" t="n">
-        <v>99.97427419833859</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,10 +3672,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>205.6779548755975</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.8429936158254</v>
+        <v>170.3628934706929</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832528</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832528</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832528</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912181</v>
+        <v>28.23218154912182</v>
       </c>
       <c r="G2" t="n">
         <v>15.0020469733056</v>
@@ -4330,52 +4330,52 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
         <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>738.6222485201477</v>
       </c>
       <c r="S2" t="n">
-        <v>750.10234866528</v>
+        <v>738.6222485201477</v>
       </c>
       <c r="T2" t="n">
-        <v>560.6825636487952</v>
+        <v>549.2024635036628</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487952</v>
+        <v>359.7826784871779</v>
       </c>
       <c r="V2" t="n">
-        <v>371.2627786323103</v>
+        <v>170.3628934706929</v>
       </c>
       <c r="W2" t="n">
-        <v>371.2627786323103</v>
+        <v>170.3628934706929</v>
       </c>
       <c r="X2" t="n">
-        <v>371.2627786323103</v>
+        <v>170.3628934706929</v>
       </c>
       <c r="Y2" t="n">
-        <v>181.8429936158254</v>
+        <v>170.3628934706929</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>571.6362168389244</v>
+        <v>581.8870116452122</v>
       </c>
       <c r="C3" t="n">
-        <v>571.6362168389244</v>
+        <v>407.4339823640852</v>
       </c>
       <c r="D3" t="n">
-        <v>422.7018071776731</v>
+        <v>258.4995727028339</v>
       </c>
       <c r="E3" t="n">
-        <v>263.4643521722176</v>
+        <v>99.26211769737841</v>
       </c>
       <c r="F3" t="n">
-        <v>116.9297941991026</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>116.9297941991026</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>15.06943323875946</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
         <v>15.0020469733056</v>
@@ -4412,49 +4412,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476353</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843281</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S3" t="n">
-        <v>571.6362168389244</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T3" t="n">
-        <v>571.6362168389244</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="U3" t="n">
-        <v>571.6362168389244</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="V3" t="n">
-        <v>571.6362168389244</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="W3" t="n">
-        <v>571.6362168389244</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="X3" t="n">
-        <v>571.6362168389244</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Y3" t="n">
-        <v>571.6362168389244</v>
+        <v>750.1023486652803</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>568.4538838350403</v>
+        <v>568.4538838350405</v>
       </c>
       <c r="C4" t="n">
-        <v>483.5921904008244</v>
+        <v>399.5177009071336</v>
       </c>
       <c r="D4" t="n">
-        <v>333.4755509884887</v>
+        <v>249.4010614947979</v>
       </c>
       <c r="E4" t="n">
-        <v>185.5624574060956</v>
+        <v>101.4879679124048</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
         <v>15.0020469733056</v>
@@ -4500,40 +4500,40 @@
         <v>373.5399563830975</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777543</v>
+        <v>559.1902876777544</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143045</v>
+        <v>721.9284911143046</v>
       </c>
       <c r="P4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="U4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="V4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="W4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="X4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Y4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652803</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>183.4869675567997</v>
+        <v>457.1269731198875</v>
       </c>
       <c r="C5" t="n">
-        <v>183.4869675567997</v>
+        <v>457.1269731198875</v>
       </c>
       <c r="D5" t="n">
-        <v>183.4869675567997</v>
+        <v>457.1269731198875</v>
       </c>
       <c r="E5" t="n">
-        <v>183.4869675567997</v>
+        <v>457.1269731198875</v>
       </c>
       <c r="F5" t="n">
-        <v>176.5414668075962</v>
+        <v>46.14106833027991</v>
       </c>
       <c r="G5" t="n">
-        <v>164.1296095398749</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H5" t="n">
         <v>33.72921106255854</v>
@@ -4600,19 +4600,19 @@
         <v>1686.460553127927</v>
       </c>
       <c r="U5" t="n">
-        <v>1686.460553127927</v>
+        <v>1432.819691509514</v>
       </c>
       <c r="V5" t="n">
-        <v>1686.460553127927</v>
+        <v>1220.732063356779</v>
       </c>
       <c r="W5" t="n">
-        <v>1333.691897857813</v>
+        <v>1220.732063356779</v>
       </c>
       <c r="X5" t="n">
-        <v>960.2261395967332</v>
+        <v>847.2663050956992</v>
       </c>
       <c r="Y5" t="n">
-        <v>570.0868076209215</v>
+        <v>457.1269731198875</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>652.777337876011</v>
+        <v>385.1275353083996</v>
       </c>
       <c r="C6" t="n">
-        <v>478.324308594884</v>
+        <v>341.9010757292653</v>
       </c>
       <c r="D6" t="n">
-        <v>329.3898989336327</v>
+        <v>192.966666068014</v>
       </c>
       <c r="E6" t="n">
-        <v>170.1524439281772</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F6" t="n">
         <v>33.72921106255854</v>
@@ -4646,25 +4646,25 @@
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>59.04473788968937</v>
+        <v>67.9405380666762</v>
       </c>
       <c r="K6" t="n">
-        <v>243.2077001209171</v>
+        <v>451.1842149794078</v>
       </c>
       <c r="L6" t="n">
-        <v>452.7985733737478</v>
+        <v>660.7750882322384</v>
       </c>
       <c r="M6" t="n">
-        <v>716.738104869235</v>
+        <v>924.7146197277257</v>
       </c>
       <c r="N6" t="n">
-        <v>1002.071975302568</v>
+        <v>1210.048490161058</v>
       </c>
       <c r="O6" t="n">
-        <v>1240.876927054026</v>
+        <v>1448.853441912517</v>
       </c>
       <c r="P6" t="n">
-        <v>1413.205888007736</v>
+        <v>1621.182402866226</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4676,22 +4676,22 @@
         <v>1686.460553127927</v>
       </c>
       <c r="T6" t="n">
-        <v>1490.841830594767</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U6" t="n">
-        <v>1490.841830594767</v>
+        <v>1458.344136258899</v>
       </c>
       <c r="V6" t="n">
-        <v>1490.841830594767</v>
+        <v>1223.192028027156</v>
       </c>
       <c r="W6" t="n">
-        <v>1236.604473866566</v>
+        <v>968.9546712989543</v>
       </c>
       <c r="X6" t="n">
-        <v>1028.752973661033</v>
+        <v>761.1031710934215</v>
       </c>
       <c r="Y6" t="n">
-        <v>820.9926748960791</v>
+        <v>553.3428723284676</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>601.2734510901296</v>
+        <v>478.6488915551978</v>
       </c>
       <c r="C7" t="n">
-        <v>601.2734510901296</v>
+        <v>478.6488915551978</v>
       </c>
       <c r="D7" t="n">
-        <v>451.1568116777938</v>
+        <v>328.532252142862</v>
       </c>
       <c r="E7" t="n">
-        <v>303.2437180954007</v>
+        <v>180.6191585604689</v>
       </c>
       <c r="F7" t="n">
-        <v>156.3537705974904</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G7" t="n">
-        <v>156.3537705974904</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H7" t="n">
-        <v>149.6679752034537</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I7" t="n">
         <v>33.72921106255854</v>
@@ -4764,13 +4764,13 @@
         <v>1293.13166510086</v>
       </c>
       <c r="W7" t="n">
-        <v>1003.714495063899</v>
+        <v>1109.079486426985</v>
       </c>
       <c r="X7" t="n">
-        <v>1003.714495063899</v>
+        <v>881.0899355289677</v>
       </c>
       <c r="Y7" t="n">
-        <v>782.9219159203693</v>
+        <v>660.2973563854375</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>461.1998448941142</v>
+        <v>991.9056830696791</v>
       </c>
       <c r="C8" t="n">
-        <v>92.23732795370245</v>
+        <v>622.9431661292674</v>
       </c>
       <c r="D8" t="n">
-        <v>92.23732795370245</v>
+        <v>467.2912373005192</v>
       </c>
       <c r="E8" t="n">
-        <v>92.23732795370245</v>
+        <v>467.2912373005192</v>
       </c>
       <c r="F8" t="n">
-        <v>85.29182720449897</v>
+        <v>56.30533251091165</v>
       </c>
       <c r="G8" t="n">
-        <v>73.34204122120553</v>
+        <v>44.35554652761821</v>
       </c>
       <c r="H8" t="n">
-        <v>73.34204122120553</v>
+        <v>44.35554652761821</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761802</v>
+        <v>44.35554652761821</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872695</v>
+        <v>156.8927045872706</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158971</v>
+        <v>376.2952505158992</v>
       </c>
       <c r="L8" t="n">
-        <v>685.385271498523</v>
+        <v>685.3852714985267</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556937</v>
+        <v>1060.976912556942</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.25982741548</v>
+        <v>1447.259827415486</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975099</v>
+        <v>1798.680568975107</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631076</v>
+        <v>2064.109040631085</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208113</v>
+        <v>2215.262022208122</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380901</v>
+        <v>2217.77732638091</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380901</v>
+        <v>2086.573660650141</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.777326380901</v>
+        <v>2086.573660650141</v>
       </c>
       <c r="U8" t="n">
-        <v>1964.173430465242</v>
+        <v>2086.573660650141</v>
       </c>
       <c r="V8" t="n">
-        <v>1964.173430465242</v>
+        <v>1755.510773306571</v>
       </c>
       <c r="W8" t="n">
-        <v>1611.404775195128</v>
+        <v>1755.510773306571</v>
       </c>
       <c r="X8" t="n">
-        <v>1237.939016934048</v>
+        <v>1382.045015045491</v>
       </c>
       <c r="Y8" t="n">
-        <v>847.799684958236</v>
+        <v>991.9056830696791</v>
       </c>
     </row>
     <row r="9">
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>810.3691327353164</v>
+        <v>810.3691327353166</v>
       </c>
       <c r="C9" t="n">
-        <v>635.9161034541894</v>
+        <v>635.9161034541896</v>
       </c>
       <c r="D9" t="n">
-        <v>486.9816937929382</v>
+        <v>486.9816937929384</v>
       </c>
       <c r="E9" t="n">
-        <v>327.7442387874827</v>
+        <v>327.7442387874829</v>
       </c>
       <c r="F9" t="n">
-        <v>181.2096808143676</v>
+        <v>181.2096808143678</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35554652761802</v>
+        <v>44.35554652761821</v>
       </c>
       <c r="H9" t="n">
-        <v>44.35554652761802</v>
+        <v>44.35554652761821</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761802</v>
+        <v>44.35554652761821</v>
       </c>
       <c r="J9" t="n">
-        <v>217.3941849412447</v>
+        <v>92.56405995424055</v>
       </c>
       <c r="K9" t="n">
-        <v>462.642734993757</v>
+        <v>253.1149126643076</v>
       </c>
       <c r="L9" t="n">
-        <v>724.8457108234322</v>
+        <v>515.3178884939838</v>
       </c>
       <c r="M9" t="n">
-        <v>1050.181084473536</v>
+        <v>840.653262144089</v>
       </c>
       <c r="N9" t="n">
-        <v>1398.535762314289</v>
+        <v>1189.007939984842</v>
       </c>
       <c r="O9" t="n">
-        <v>1694.992440729439</v>
+        <v>1485.464618399994</v>
       </c>
       <c r="P9" t="n">
-        <v>1913.591994996767</v>
+        <v>2019.34231362086</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380901</v>
+        <v>2217.77732638091</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380901</v>
+        <v>2217.77732638091</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472967</v>
+        <v>2217.77732638091</v>
       </c>
       <c r="T9" t="n">
-        <v>1884.596484064424</v>
+        <v>2111.685885427674</v>
       </c>
       <c r="U9" t="n">
-        <v>1656.496332322565</v>
+        <v>1883.585733685816</v>
       </c>
       <c r="V9" t="n">
         <v>1648.433625454073</v>
@@ -4928,7 +4928,7 @@
         <v>1186.344768520338</v>
       </c>
       <c r="Y9" t="n">
-        <v>978.5844697553844</v>
+        <v>978.5844697553846</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>330.6159290413275</v>
+        <v>448.8641994953613</v>
       </c>
       <c r="C10" t="n">
-        <v>330.6159290413275</v>
+        <v>448.8641994953613</v>
       </c>
       <c r="D10" t="n">
-        <v>180.4992896289918</v>
+        <v>448.8641994953613</v>
       </c>
       <c r="E10" t="n">
-        <v>44.35554652761802</v>
+        <v>300.9511059129682</v>
       </c>
       <c r="F10" t="n">
-        <v>44.35554652761802</v>
+        <v>154.0611584150578</v>
       </c>
       <c r="G10" t="n">
-        <v>44.35554652761802</v>
+        <v>154.0611584150578</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761802</v>
+        <v>154.0611584150578</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761802</v>
+        <v>44.35554652761821</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262691964</v>
+        <v>60.95254262692008</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274018</v>
+        <v>218.0633423274027</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918417</v>
+        <v>474.637509191843</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921683</v>
+        <v>755.5481168921701</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629315</v>
+        <v>1035.213914629317</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546126</v>
+        <v>1277.514248546129</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659235</v>
+        <v>1461.323360659238</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155962</v>
+        <v>1505.148182155966</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155962</v>
+        <v>1505.148182155966</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.148182155962</v>
+        <v>1505.148182155966</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.148182155962</v>
+        <v>1505.148182155966</v>
       </c>
       <c r="U10" t="n">
-        <v>1505.148182155962</v>
+        <v>1441.747987779756</v>
       </c>
       <c r="V10" t="n">
-        <v>1250.463693950075</v>
+        <v>1187.063499573869</v>
       </c>
       <c r="W10" t="n">
-        <v>961.0465239131147</v>
+        <v>897.6463295369088</v>
       </c>
       <c r="X10" t="n">
-        <v>733.0569730150974</v>
+        <v>669.6567786388914</v>
       </c>
       <c r="Y10" t="n">
-        <v>512.2643938715672</v>
+        <v>448.8641994953613</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,22 +5299,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2380.301669307225</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.700204330166</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.624977674364</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5737,10 +5737,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474262</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>261.8464821474262</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5986,10 +5986,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
@@ -5998,13 +5998,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,7 +6025,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,25 +6478,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6600,58 +6600,58 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
         <v>1746.193029533436</v>
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,34 +7168,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7405,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7426,37 +7426,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777618</v>
+        <v>46.56605103777628</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>8.985656744431139</v>
       </c>
       <c r="K6" t="n">
-        <v>63.37360602116058</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>85.55322963883424</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>103.2587840751581</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688348</v>
+        <v>30.32522655688322</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>10.85445046951733</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>100.1408962628957</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.0314858713395</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24177,10 +24177,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>73.62417772602069</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>72.11969353038569</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844823058</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>176.378588761786</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>46.45968844823045</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>701556.0906844323</v>
+        <v>701556.0906844324</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679314.7119745262</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="15">
@@ -26316,28 +26316,28 @@
         <v>759463.6371244621</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244632</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132551</v>
-      </c>
       <c r="J2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132552</v>
@@ -26349,13 +26349,13 @@
         <v>746610.6047132551</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778327</v>
+        <v>259123.8056778326</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296871</v>
+        <v>138712.7919296895</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745782</v>
+        <v>589678.7921745759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153561</v>
+        <v>60247.15959153568</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484209</v>
+        <v>33617.87336484269</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167283</v>
+        <v>154073.8510167276</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296198</v>
+        <v>170385.5244296191</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26441,10 +26441,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
+        <v>14216.7520768551</v>
+      </c>
+      <c r="K4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14216.75207685501</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
@@ -26453,10 +26453,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969282</v>
+        <v>86168.04029969301</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167048.2424712034</v>
+        <v>-167048.2424712036</v>
       </c>
       <c r="C6" t="n">
-        <v>215474.5337518796</v>
+        <v>215474.5337518795</v>
       </c>
       <c r="D6" t="n">
-        <v>364197.2804654635</v>
+        <v>364197.2804654606</v>
       </c>
       <c r="E6" t="n">
-        <v>41245.15138355816</v>
+        <v>41557.79271248156</v>
       </c>
       <c r="F6" t="n">
-        <v>630923.9435581361</v>
+        <v>631236.5848870572</v>
       </c>
       <c r="G6" t="n">
-        <v>630923.943558136</v>
+        <v>631236.5848870575</v>
       </c>
       <c r="H6" t="n">
-        <v>630923.9435581362</v>
+        <v>631236.5848870577</v>
       </c>
       <c r="I6" t="n">
-        <v>630923.9435581359</v>
+        <v>631236.5848870574</v>
       </c>
       <c r="J6" t="n">
-        <v>581858.9988295916</v>
+        <v>582171.6401585132</v>
       </c>
       <c r="K6" t="n">
-        <v>570676.7839666004</v>
+        <v>570989.4252955217</v>
       </c>
       <c r="L6" t="n">
-        <v>597306.070193294</v>
+        <v>597618.7115222146</v>
       </c>
       <c r="M6" t="n">
-        <v>476850.0925414076</v>
+        <v>477162.7338703296</v>
       </c>
       <c r="N6" t="n">
-        <v>630923.9435581361</v>
+        <v>631236.5848870573</v>
       </c>
       <c r="O6" t="n">
-        <v>630923.943558136</v>
+        <v>631236.5848870574</v>
       </c>
       <c r="P6" t="n">
-        <v>630923.943558136</v>
+        <v>631236.5848870574</v>
       </c>
     </row>
   </sheetData>
@@ -26694,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790425</v>
+        <v>863.7717861790444</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952252</v>
+        <v>554.4443315952276</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,22 +26813,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.039426512964665e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847053</v>
+        <v>201.5110155847052</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814325</v>
+        <v>113.7908296814344</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626313</v>
+        <v>504.2037141626294</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156618</v>
+        <v>234.0895511156617</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132434</v>
+        <v>132.8291933132458</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044232</v>
+        <v>618.2639565044205</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156618</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132434</v>
+        <v>132.8291933132458</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044233</v>
+        <v>618.2639565044205</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156618</v>
+        <v>234.0895511156617</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132434</v>
+        <v>132.8291933132458</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044232</v>
+        <v>618.2639565044205</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>220.0742335666824</v>
+        <v>231.4395327103636</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988677</v>
+        <v>25.91829388988671</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871027</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038149</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,16 +27469,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>61.65174237655181</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.71209935270725</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920012</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>83.23374459875409</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>59.79998629322306</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>179.5010509569681</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
         <v>94.24014755885166</v>
@@ -27672,13 +27672,13 @@
         <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>117.7855065989276</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27697,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>129.9143040049728</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27706,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>10.01021185642139</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7303505775365</v>
@@ -27748,13 +27748,13 @@
         <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>143.5839502238242</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>104.3113414494547</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>200.5876320802222</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832803</v>
+        <v>303.9125797832802</v>
       </c>
       <c r="I8" t="n">
-        <v>47.90765465122143</v>
+        <v>76.60428439787279</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734617</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27949,10 +27949,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.2918076971922</v>
+        <v>94.29180769719216</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155201</v>
+        <v>25.42862793155187</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,16 +27982,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.1730436088543</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>87.64546374075429</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>224.8185073496176</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>11.65165697620918</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4333581046933</v>
@@ -28031,7 +28031,7 @@
         <v>148.3785035421428</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685653</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305868</v>
+        <v>107.2570757305867</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418047</v>
+        <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2902986167381</v>
+        <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>223.4678757647469</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>9.28537247091299e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>9.848122317634986e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31077,13 +31077,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31138,7 +31138,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31147,22 +31147,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.47244939167454</v>
+        <v>3.472449391674548</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248689</v>
+        <v>35.56222233248697</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725328</v>
+        <v>133.8716051725331</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566373</v>
+        <v>294.7198015566379</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062206</v>
+        <v>441.7085843062216</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766804</v>
+        <v>547.9785573766817</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458725</v>
+        <v>609.7317292458739</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799678</v>
+        <v>619.5978260799692</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415041</v>
+        <v>585.0686574415054</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845388</v>
+        <v>499.34256308454</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451942</v>
+        <v>374.9854692451951</v>
       </c>
       <c r="R8" t="n">
-        <v>218.126249099776</v>
+        <v>218.1262490997765</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278365</v>
+        <v>79.12844051278384</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205531</v>
+        <v>15.20064721205534</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339631</v>
+        <v>0.2777959513339638</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328507</v>
+        <v>1.857924219328511</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930426</v>
+        <v>17.9436365393043</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986306</v>
+        <v>63.9680049198632</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743656</v>
+        <v>175.533094774366</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693756</v>
+        <v>300.0140174693763</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169198</v>
+        <v>403.4058705169207</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675781</v>
+        <v>470.7556234675791</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436891</v>
+        <v>483.2151240436901</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627784</v>
+        <v>442.0474347627795</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873883</v>
+        <v>354.7820379873891</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391967</v>
+        <v>237.1623968391973</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070805</v>
+        <v>115.3542774070807</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498342</v>
+        <v>34.5101274949835</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363583</v>
+        <v>7.4887384103636</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347702</v>
+        <v>0.1222318565347705</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765486</v>
+        <v>1.55762125376549</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529679</v>
+        <v>13.84866896529682</v>
       </c>
       <c r="I10" t="n">
-        <v>46.841919158693</v>
+        <v>46.84191915869311</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412199</v>
+        <v>110.1238226412201</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011174</v>
+        <v>180.9672693011178</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552797</v>
+        <v>231.5757998552802</v>
       </c>
       <c r="M10" t="n">
-        <v>244.164211624348</v>
+        <v>244.1642116243485</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057677</v>
+        <v>238.3585324057682</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231435</v>
+        <v>220.162684123144</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463275</v>
+        <v>188.3872105463279</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130354</v>
+        <v>130.4295397130357</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658266</v>
+        <v>70.03631564658282</v>
       </c>
       <c r="S10" t="n">
-        <v>27.1450903951676</v>
+        <v>27.14509039516766</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543439</v>
+        <v>6.655290811543455</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629935</v>
+        <v>0.08496115929629953</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068235</v>
+        <v>28.45844197068246</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.57123921932407</v>
+        <v>34.55689596375521</v>
       </c>
       <c r="K6" t="n">
-        <v>186.0231941729573</v>
+        <v>387.1148251643754</v>
       </c>
       <c r="L6" t="n">
         <v>211.707952780637</v>
@@ -35035,7 +35035,7 @@
         <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.0148132527186</v>
+        <v>65.9375255168695</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.673897029951</v>
+        <v>113.6738970299516</v>
       </c>
       <c r="K8" t="n">
-        <v>221.61873326124</v>
+        <v>221.6187332612411</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066932</v>
+        <v>312.2121424066945</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960185998</v>
+        <v>379.3854960186012</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833769</v>
+        <v>390.1847624833783</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198174</v>
+        <v>354.9704460198186</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292693</v>
+        <v>268.1095673292704</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707447</v>
+        <v>152.6797793707456</v>
       </c>
       <c r="R8" t="n">
-        <v>2.54071128564388</v>
+        <v>2.540711285644363</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>174.7865034481078</v>
+        <v>48.69546810769933</v>
       </c>
       <c r="K9" t="n">
-        <v>247.7258081338508</v>
+        <v>162.1725784950173</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370457</v>
+        <v>264.8514907370466</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455597</v>
+        <v>328.6215895455608</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603557</v>
+        <v>351.8734119603569</v>
       </c>
       <c r="O9" t="n">
-        <v>299.451190318334</v>
+        <v>299.451190318335</v>
       </c>
       <c r="P9" t="n">
-        <v>220.807630573058</v>
+        <v>539.2703992129959</v>
       </c>
       <c r="Q9" t="n">
-        <v>307.2579104890243</v>
+        <v>200.4394068283339</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.7646425245471</v>
+        <v>16.76464252454734</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752345</v>
+        <v>158.6977774752349</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155958</v>
+        <v>259.1658251155964</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861885</v>
+        <v>283.7480885861891</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849963</v>
+        <v>282.4907047849969</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371832</v>
+        <v>244.7478120371837</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112209</v>
+        <v>185.6657698112214</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134103</v>
+        <v>44.26749646134131</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
